--- a/file/datasv.xlsx
+++ b/file/datasv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1913CC-D309-4DFC-8C33-2EE8CB732D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46232CED-FB58-436E-9CEA-C3EB4E06CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="780" windowWidth="19200" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>đồng nai</t>
   </si>
   <si>
-    <t>quảng ngãi</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>Văn A</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Văn C</t>
   </si>
   <si>
-    <t>Văn D</t>
-  </si>
-  <si>
     <t>2000-11-3</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>2000-11-5</t>
   </si>
   <si>
-    <t>2000-11-6</t>
-  </si>
-  <si>
     <t>Mã số</t>
   </si>
   <si>
@@ -93,67 +81,16 @@
     <t>0029</t>
   </si>
   <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0031</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>0035</t>
-  </si>
-  <si>
-    <t>Văn E</t>
-  </si>
-  <si>
-    <t>Văn F</t>
-  </si>
-  <si>
-    <t>Văn G</t>
-  </si>
-  <si>
-    <t>Văn H</t>
-  </si>
-  <si>
-    <t>Văn Q</t>
-  </si>
-  <si>
-    <t>2000-11-7</t>
-  </si>
-  <si>
-    <t>2000-11-8</t>
-  </si>
-  <si>
-    <t>2000-11-9</t>
-  </si>
-  <si>
-    <t>2000-11-10</t>
-  </si>
-  <si>
-    <t>2000-11-11</t>
-  </si>
-  <si>
-    <t>909526212</t>
-  </si>
-  <si>
-    <t>909526213</t>
-  </si>
-  <si>
-    <t>909526214</t>
-  </si>
-  <si>
-    <t>909526215</t>
-  </si>
-  <si>
     <t>2018-2022</t>
+  </si>
+  <si>
+    <t>0909526211</t>
+  </si>
+  <si>
+    <t>0909526212</t>
+  </si>
+  <si>
+    <t>0909526213</t>
   </si>
 </sst>
 </file>
@@ -481,11 +418,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
@@ -493,233 +431,125 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>909526211</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>909526212</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>909526213</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>909526214</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <v>909526215</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
